--- a/Stock/1 Year.xlsx
+++ b/Stock/1 Year.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InvestmentRecommendation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\city computers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,9 +159,6 @@
     <t>HUMNL</t>
   </si>
   <si>
-    <t>1,231.53</t>
-  </si>
-  <si>
     <t>TELE</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>PRL</t>
+  </si>
+  <si>
+    <t>1231.53</t>
   </si>
 </sst>
 </file>
@@ -290,11 +290,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +601,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,19 +615,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,26 +640,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,42 +704,42 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,10 +752,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,10 +792,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,10 +848,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
